--- a/resource/skills.xlsx
+++ b/resource/skills.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfwu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfwu/PycharmProjects/MonsterCrawler/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4978,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1544"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A1534" workbookViewId="0">
+      <selection activeCell="B1548" sqref="B1548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resource/skills.xlsx
+++ b/resource/skills.xlsx
@@ -4978,13 +4978,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1534" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1548" sqref="B1548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
